--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3940.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3940.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.109494145272655</v>
+        <v>0.6358052492141724</v>
       </c>
       <c r="B1">
-        <v>1.577548669687977</v>
+        <v>0.8566708564758301</v>
       </c>
       <c r="C1">
-        <v>2.945392741975432</v>
+        <v>4.582496643066406</v>
       </c>
       <c r="D1">
-        <v>6.973238932729927</v>
+        <v>1.944243192672729</v>
       </c>
       <c r="E1">
-        <v>2.018693621065159</v>
+        <v>1.069772601127625</v>
       </c>
     </row>
   </sheetData>
